--- a/pm/market.xlsx
+++ b/pm/market.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clinton/Dropbox/application_data/GitHub/ec_data/pm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3F5F7C-8DCC-974A-A72E-5F5C7DF94EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA5A37A-4652-454C-9E7F-EA0CC7644EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28820" yWindow="-1820" windowWidth="25600" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query Sheet" sheetId="1" r:id="rId1"/>
@@ -2604,7 +2604,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
